--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D97EA-7839-49B8-8048-4278B6C49CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C0093-67AE-4C0F-A46E-E8ED6E8FCE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
         <v>0.34845035238133182</v>
       </c>
       <c r="C2" s="1">
-        <v>0.82101801441356148</v>
+        <v>0.82101801441356137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.20496507159846211</v>
+        <v>0.2049650715984622</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.14019612943012141</v>
+        <v>0.1401961294301213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C0093-67AE-4C0F-A46E-E8ED6E8FCE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DCF430-26B1-4DD0-9E18-ED32F8A8F8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DCF430-26B1-4DD0-9E18-ED32F8A8F8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B10E31-9121-475D-AC14-68A7C1B6FFF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B10E31-9121-475D-AC14-68A7C1B6FFF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FDD7EC-F48C-4370-BB92-B64F28795F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FDD7EC-F48C-4370-BB92-B64F28795F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC243F35-5117-4CCE-812E-2CEEF00C019C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evr" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC243F35-5117-4CCE-812E-2CEEF00C019C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF07FD6-8181-49F0-B25C-A71689D2AB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF07FD6-8181-49F0-B25C-A71689D2AB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D97330-B58D-489B-98FD-A8E2148E2B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evr" sheetId="1" r:id="rId1"/>
